--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2798564.389607381</v>
+        <v>2796312.309896173</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8797265.295567481</v>
+        <v>8797265.295567479</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -710,22 +710,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>149.3482793282679</v>
       </c>
       <c r="Y2" t="n">
-        <v>287.7389673565017</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>61.05801487789201</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>152.0816436076015</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>55.45354938846194</v>
       </c>
       <c r="D5" t="n">
-        <v>40.1277930416076</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,10 +908,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>155.5594962886088</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.051689109229</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>120.774090540354</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>71.68269007697828</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,13 +1291,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>124.4272108043264</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>2.155902292902968</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>75.08886905994719</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>120.8326485140796</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>102.1557845699822</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>213.3849150459361</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>156.3923706291105</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>28.23631843387909</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,16 +2719,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>25.52471385612597</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887056</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,13 +2950,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>74.99129529219111</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>23.62554568141315</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>125.2851635392046</v>
+        <v>45.66054613217701</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695615</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>74.53917159609126</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>238.1282460566148</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3904,16 +3904,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833814</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>66.25628701154714</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>74.99129529219111</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,13 +4147,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1944.904841306683</v>
+        <v>1144.379366334374</v>
       </c>
       <c r="C2" t="n">
-        <v>1575.942324366272</v>
+        <v>1144.379366334374</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F2" t="n">
         <v>779.1681669784198</v>
@@ -4331,7 +4331,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410101</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2609.016021139987</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2235.550262878907</v>
+        <v>1921.118538374307</v>
       </c>
       <c r="Y2" t="n">
-        <v>1944.904841306683</v>
+        <v>1530.979206398496</v>
       </c>
     </row>
     <row r="3">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>677.4387267498528</v>
+        <v>128.1868789351046</v>
       </c>
       <c r="C4" t="n">
-        <v>677.4387267498528</v>
+        <v>128.1868789351046</v>
       </c>
       <c r="D4" t="n">
-        <v>527.322087337517</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
         <v>66.5121164321834</v>
@@ -4513,25 +4513,25 @@
         <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T4" t="n">
-        <v>677.4387267498528</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U4" t="n">
-        <v>677.4387267498528</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="V4" t="n">
-        <v>677.4387267498528</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="W4" t="n">
-        <v>677.4387267498528</v>
+        <v>128.1868789351046</v>
       </c>
       <c r="X4" t="n">
-        <v>677.4387267498528</v>
+        <v>128.1868789351046</v>
       </c>
       <c r="Y4" t="n">
-        <v>677.4387267498528</v>
+        <v>128.1868789351046</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796256</v>
+        <v>1628.178203944121</v>
       </c>
       <c r="C5" t="n">
-        <v>552.807938939214</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>512.2748146547618</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>126.4865620565176</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073141</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,7 +4565,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,7 +4574,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943747</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4620,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.445961844415</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>518.445961844415</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>518.445961844415</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>370.5328682620219</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>223.6429207641116</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4747,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y7" t="n">
-        <v>700.0944266746548</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1186.376265094905</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C8" t="n">
-        <v>1186.376265094905</v>
+        <v>942.9472709150257</v>
       </c>
       <c r="D8" t="n">
-        <v>828.1105664881544</v>
+        <v>584.6815723082752</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>198.893319710031</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>191.9478189608275</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>180.9157728462281</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,7 +4802,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4814,7 +4814,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4847,7 +4847,7 @@
         <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943747</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>511.2489900899275</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>342.3128071620206</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>192.1961677496849</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
         <v>66.51211643218342</v>
@@ -4960,52 +4960,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181845</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181845</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181845</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181845</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X10" t="n">
-        <v>692.8974549201672</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y10" t="n">
-        <v>692.8974549201672</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="11">
@@ -5030,10 +5030,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5042,16 +5042,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637304</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444888</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684175</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2366.028450684175</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>991.7436897307817</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C13" t="n">
-        <v>822.8075068028749</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>672.6908673905391</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>524.777773808146</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>1173.392154561021</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="14">
@@ -5267,61 +5267,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>700.7543264856228</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297721</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>700.7543264856228</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2072.35525930079</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2495.978408795858</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.7084350851671</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>229.5592957321579</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6069,22 +6069,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>417.9651836029414</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>383.4415877881669</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>235.5284942057738</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,37 +6236,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.533952578166</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N27" t="n">
-        <v>1804.131916132773</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>733.4550657171301</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C28" t="n">
-        <v>564.5188827892232</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D28" t="n">
-        <v>414.4022433768874</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>266.4891497944943</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>119.599202296584</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>119.599202296584</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588917</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.8961096909</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y28" t="n">
-        <v>915.1035305473698</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>631.5645865368208</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>943.510265746755</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1540.888753373307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>916.3099000622252</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>747.3737171343183</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D34" t="n">
-        <v>597.2570777219826</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E34" t="n">
-        <v>449.3439841395895</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F34" t="n">
-        <v>302.4540366416791</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2379.917379832662</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>2090.84215317686</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1836.157664970973</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1546.740494934012</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1318.750944035995</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1097.958364892465</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6929,37 +6929,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075824</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7414352191925</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M36" t="n">
-        <v>1025.119922845744</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
-        <v>1652.717886400351</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2204.627616639638</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,61 +7160,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1804.131916132773</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>680.448174698413</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>530.3315352860773</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7430,31 +7430,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>530.3315352860773</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2312.991837396757</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.21291626627</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>631.5645865368208</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>92.15795203868065</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.58839950885162</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>43.265263452949</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.19973830615865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>10.85445046951733</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>112.4047682534902</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>120.3791545843333</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>114.7699989900979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>40.32043864788537</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>73.62417772602124</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>122.808416965156</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>40.23897475306427</v>
+        <v>119.8635921600918</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>38.13892827624207</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>211.9838267404998</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.5498640939303</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>48.39475227997616</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25792,16 +25792,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823103</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>114.7699989900974</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>73.62417772602124</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>761249.2598735513</v>
+        <v>761249.2598735512</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>761249.2598735512</v>
+        <v>761249.2598735513</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>761249.2598735512</v>
+        <v>761249.2598735513</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>761249.2598735513</v>
+        <v>761249.2598735511</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>761249.2598735513</v>
+        <v>761249.2598735512</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>761249.2598735513</v>
+        <v>761249.2598735512</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>761249.2598735513</v>
+        <v>761249.2598735512</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>761249.2598735513</v>
+        <v>761249.2598735512</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>761249.2598735513</v>
+        <v>761249.2598735512</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="C2" t="n">
         <v>677359.4601380336</v>
@@ -26320,37 +26320,37 @@
         <v>677359.4601380338</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="H2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.9447442555</v>
+        <v>665895.9447442553</v>
       </c>
       <c r="M2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="N2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="O2" t="n">
         <v>665895.9447442549</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.944744255</v>
       </c>
       <c r="P2" t="n">
         <v>665895.9447442548</v>
@@ -26375,7 +26375,7 @@
         <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972777</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687971</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687968</v>
       </c>
       <c r="G4" t="n">
+        <v>15436.64000687969</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15436.64000687969</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15436.64000687962</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15436.64000687969</v>
+      </c>
+      <c r="L4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="M4" t="n">
+        <v>15436.64000687963</v>
+      </c>
+      <c r="N4" t="n">
         <v>15436.64000687965</v>
       </c>
-      <c r="H4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15436.64000687968</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="O4" t="n">
         <v>15436.64000687966</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="L4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15436.64000687969</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="O4" t="n">
-        <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
         <v>15436.64000687967</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-852915.9702550045</v>
+        <v>-852915.9702550047</v>
       </c>
       <c r="C6" t="n">
         <v>475828.7754725878</v>
       </c>
       <c r="D6" t="n">
-        <v>475828.7754725883</v>
+        <v>475828.775472588</v>
       </c>
       <c r="E6" t="n">
-        <v>223924.313106113</v>
+        <v>223889.5751806773</v>
       </c>
       <c r="F6" t="n">
-        <v>549336.774913468</v>
+        <v>549302.0369880323</v>
       </c>
       <c r="G6" t="n">
-        <v>549336.7749134683</v>
+        <v>549302.0369880327</v>
       </c>
       <c r="H6" t="n">
-        <v>549336.7749134682</v>
+        <v>549302.0369880325</v>
       </c>
       <c r="I6" t="n">
-        <v>549336.7749134679</v>
+        <v>549302.0369880325</v>
       </c>
       <c r="J6" t="n">
-        <v>331805.5725161908</v>
+        <v>331770.834590755</v>
       </c>
       <c r="K6" t="n">
-        <v>549336.7749134679</v>
+        <v>549302.0369880327</v>
       </c>
       <c r="L6" t="n">
-        <v>549336.7749134687</v>
+        <v>549302.0369880329</v>
       </c>
       <c r="M6" t="n">
-        <v>464281.7469779563</v>
+        <v>464247.0090525209</v>
       </c>
       <c r="N6" t="n">
-        <v>549336.7749134682</v>
+        <v>549302.0369880327</v>
       </c>
       <c r="O6" t="n">
-        <v>549336.7749134683</v>
+        <v>549302.0369880325</v>
       </c>
       <c r="P6" t="n">
-        <v>549336.774913468</v>
+        <v>549302.0369880324</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26790,7 +26790,7 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,13 +26820,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26969,19 +26969,19 @@
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
+        <v>4.547473508864641e-13</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>220.3828213502012</v>
       </c>
       <c r="Y2" t="n">
-        <v>98.49897129955184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,19 +27540,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>87.55745814032035</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27585,10 +27585,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>67.46730566856769</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>309.8193423825456</v>
       </c>
       <c r="D5" t="n">
-        <v>314.5552485790753</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,13 +27780,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>10.46631197041938</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27828,19 +27828,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>7.160149096383918</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>261.9597511231266</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>222.9250743103422</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>22.00675184224275</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>284.0559359127099</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-5.151842295763247e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-4.622602397465861e-14</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,34 +31841,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>291.8940795642907</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796302</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32333,10 +32333,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>291.8940795642898</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32494,7 +32494,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32552,7 +32552,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32570,10 +32570,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>197.6412480909884</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32704,7 +32704,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32789,7 +32789,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>312.3207226334981</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,7 +32798,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,7 +32807,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153327</v>
       </c>
       <c r="O27" t="n">
-        <v>626.4629682828348</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>708.9385480032147</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>506.5895320981981</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>165.2255134509763</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>251.8861049150245</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>250.3097721075164</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118737</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>198.5607970756955</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>602.4605829984179</v>
       </c>
       <c r="O42" t="n">
-        <v>163.1438255932938</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34445,28 +34445,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>578.1083652167725</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>151.9123054782691</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629693</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35981,10 +35981,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>151.9123054782682</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36218,10 +36218,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>57.65947400496688</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36437,7 +36437,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>174.4792836591391</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,7 +36446,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,7 +36455,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319995</v>
       </c>
       <c r="O27" t="n">
-        <v>483.8667238383904</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>566.8045140811964</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>368.0351523183239</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>31.25110603664601</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998974</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>120.5443928316912</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>116.3353646931862</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>285.3607779319996</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>55.96455263125101</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>471.1188709150846</v>
       </c>
       <c r="O42" t="n">
-        <v>20.54758114884936</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38093,28 +38093,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>446.7666531334392</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
